--- a/WebApplication1/WebApplication1/示例测试目录/MeShopNew/权限整理11.xlsx
+++ b/WebApplication1/WebApplication1/示例测试目录/MeShopNew/权限整理11.xlsx
@@ -530,7 +530,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -540,13 +540,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -698,7 +691,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -780,12 +773,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1030,133 +1017,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1173,13 +1160,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1495,8 +1482,8 @@
   <sheetPr/>
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2501,7 +2488,7 @@
     </row>
     <row r="55" s="1" customFormat="1" spans="2:7">
       <c r="B55" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C55" s="5">
         <v>1</v>
@@ -2518,7 +2505,7 @@
     </row>
     <row r="56" s="1" customFormat="1" spans="2:7">
       <c r="B56" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C56" s="5">
         <v>1</v>
@@ -2535,7 +2522,7 @@
     </row>
     <row r="57" s="1" customFormat="1" spans="2:7">
       <c r="B57" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C57" s="5">
         <v>1</v>
@@ -2552,7 +2539,7 @@
     </row>
     <row r="58" s="1" customFormat="1" spans="2:7">
       <c r="B58" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C58" s="5">
         <v>1</v>
@@ -2569,7 +2556,7 @@
     </row>
     <row r="59" s="1" customFormat="1" spans="2:7">
       <c r="B59" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C59" s="5">
         <v>1</v>
@@ -2586,7 +2573,7 @@
     </row>
     <row r="60" s="1" customFormat="1" spans="2:7">
       <c r="B60" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C60" s="5">
         <v>1</v>
@@ -2603,7 +2590,7 @@
     </row>
     <row r="61" s="1" customFormat="1" spans="2:7">
       <c r="B61" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C61" s="5">
         <v>1</v>
@@ -2620,7 +2607,7 @@
     </row>
     <row r="62" s="1" customFormat="1" spans="2:7">
       <c r="B62" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C62" s="5">
         <v>1</v>
@@ -2637,7 +2624,7 @@
     </row>
     <row r="63" s="1" customFormat="1" spans="2:7">
       <c r="B63" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C63" s="5">
         <v>1</v>
@@ -2654,7 +2641,7 @@
     </row>
     <row r="64" s="1" customFormat="1" spans="2:7">
       <c r="B64" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C64" s="5">
         <v>1</v>
@@ -2671,7 +2658,7 @@
     </row>
     <row r="65" s="1" customFormat="1" spans="2:7">
       <c r="B65" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C65" s="5">
         <v>1</v>
@@ -2688,7 +2675,7 @@
     </row>
     <row r="66" s="1" customFormat="1" spans="2:7">
       <c r="B66" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C66" s="5">
         <v>1</v>
@@ -2705,7 +2692,7 @@
     </row>
     <row r="67" s="1" customFormat="1" spans="2:7">
       <c r="B67" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C67" s="5">
         <v>1</v>
